--- a/xgboost.xlsx
+++ b/xgboost.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaskuttyreji/Documents/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaskuttyreji/Documents/GitHub/Notes-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB56634E-5523-B742-9511-EC6E330DC02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9EC26F-F730-BD4B-B06E-6DBAC6A144B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FA97FB5C-9A0A-8141-BAA1-26E24876E49C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="xgb" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -132,13 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -169,7 +162,13 @@
     </font>
     <font>
       <sz val="18"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -183,13 +182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,138 +285,105 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2206,8 +2172,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3800359" y="4957712"/>
-          <a:ext cx="222356" cy="681894"/>
+          <a:off x="3776213" y="4868231"/>
+          <a:ext cx="218323" cy="669525"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2221,10 +2187,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="681894"/>
+                <a:pt x="0" y="669525"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="222356" y="681894"/>
+                <a:pt x="218323" y="669525"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2265,8 +2231,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3304006" y="3905223"/>
-          <a:ext cx="1089304" cy="311299"/>
+          <a:off x="3288864" y="3834833"/>
+          <a:ext cx="1069545" cy="305652"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2280,13 +2246,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="155649"/>
+                <a:pt x="0" y="152826"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1089304" y="155649"/>
+                <a:pt x="1069545" y="152826"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1089304" y="311299"/>
+                <a:pt x="1069545" y="305652"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2327,8 +2293,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="986581" y="7062690"/>
-          <a:ext cx="460545" cy="1734383"/>
+          <a:off x="1013474" y="6935027"/>
+          <a:ext cx="452191" cy="1702923"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2342,10 +2308,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1734383"/>
+                <a:pt x="0" y="1702923"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="460545" y="1734383"/>
+                <a:pt x="452191" y="1702923"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2386,8 +2352,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="986581" y="7062690"/>
-          <a:ext cx="460545" cy="681894"/>
+          <a:off x="1013474" y="6935027"/>
+          <a:ext cx="452191" cy="669525"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2401,10 +2367,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="681894"/>
+                <a:pt x="0" y="669525"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="460545" y="681894"/>
+                <a:pt x="452191" y="669525"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2445,8 +2411,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2168982" y="6010201"/>
-          <a:ext cx="91440" cy="311299"/>
+          <a:off x="2173598" y="5901629"/>
+          <a:ext cx="91440" cy="305652"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2460,7 +2426,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="311299"/>
+                <a:pt x="45720" y="305652"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2501,8 +2467,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2168982" y="4957712"/>
-          <a:ext cx="91440" cy="311299"/>
+          <a:off x="2173598" y="4868231"/>
+          <a:ext cx="91440" cy="305652"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2516,7 +2482,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="311299"/>
+                <a:pt x="45720" y="305652"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2557,8 +2523,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2214702" y="3905223"/>
-          <a:ext cx="1089304" cy="311299"/>
+          <a:off x="2219318" y="3834833"/>
+          <a:ext cx="1069545" cy="305652"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2569,16 +2535,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1089304" y="0"/>
+                <a:pt x="1069545" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1089304" y="155649"/>
+                <a:pt x="1069545" y="152826"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="155649"/>
+                <a:pt x="0" y="152826"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="311299"/>
+                <a:pt x="0" y="305652"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2619,8 +2585,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3258286" y="2852733"/>
-          <a:ext cx="91440" cy="311299"/>
+          <a:off x="3243144" y="2801435"/>
+          <a:ext cx="91440" cy="305652"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2634,7 +2600,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="311299"/>
+                <a:pt x="45720" y="305652"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2675,8 +2641,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3258286" y="1800244"/>
-          <a:ext cx="91440" cy="311299"/>
+          <a:off x="3243144" y="1768037"/>
+          <a:ext cx="91440" cy="305652"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2690,7 +2656,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="311299"/>
+                <a:pt x="45720" y="305652"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2731,8 +2697,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3258286" y="747755"/>
-          <a:ext cx="91440" cy="311299"/>
+          <a:off x="3243144" y="734639"/>
+          <a:ext cx="91440" cy="305652"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2746,7 +2712,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="311299"/>
+                <a:pt x="45720" y="305652"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2787,8 +2753,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1716215" y="6565"/>
-          <a:ext cx="3175582" cy="741189"/>
+          <a:off x="1729873" y="6893"/>
+          <a:ext cx="3117980" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2855,8 +2821,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1716215" y="6565"/>
-        <a:ext cx="3175582" cy="741189"/>
+        <a:off x="1729873" y="6893"/>
+        <a:ext cx="3117980" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{85D0A41B-D0D8-7143-8A88-4DB67FEAB0E4}">
@@ -2866,8 +2832,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="775460" y="1059054"/>
-          <a:ext cx="5057092" cy="741189"/>
+          <a:off x="806183" y="1040291"/>
+          <a:ext cx="4965361" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2934,8 +2900,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="775460" y="1059054"/>
-        <a:ext cx="5057092" cy="741189"/>
+        <a:off x="806183" y="1040291"/>
+        <a:ext cx="4965361" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BDA1A957-DE46-684B-B7E0-1DFE9A30F3A2}">
@@ -2945,8 +2911,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="792041" y="2111544"/>
-          <a:ext cx="5023931" cy="741189"/>
+          <a:off x="822463" y="2073690"/>
+          <a:ext cx="4932802" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3013,8 +2979,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="792041" y="2111544"/>
-        <a:ext cx="5023931" cy="741189"/>
+        <a:off x="822463" y="2073690"/>
+        <a:ext cx="4932802" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CBC6CC45-D925-A542-AB48-E1F2055DA3EB}">
@@ -3024,8 +2990,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="792041" y="3164033"/>
-          <a:ext cx="5023931" cy="741189"/>
+          <a:off x="822463" y="3107088"/>
+          <a:ext cx="4932802" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3092,8 +3058,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="792041" y="3164033"/>
-        <a:ext cx="5023931" cy="741189"/>
+        <a:off x="822463" y="3107088"/>
+        <a:ext cx="4932802" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{940BF539-B51E-BD42-BA04-0CD254751244}">
@@ -3103,8 +3069,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1473512" y="4216522"/>
-          <a:ext cx="1482379" cy="741189"/>
+          <a:off x="1491573" y="4140486"/>
+          <a:ext cx="1455490" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3171,8 +3137,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1473512" y="4216522"/>
-        <a:ext cx="1482379" cy="741189"/>
+        <a:off x="1491573" y="4140486"/>
+        <a:ext cx="1455490" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{51E18BBE-A16D-3648-9394-F4320E0689B1}">
@@ -3182,8 +3148,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="717988" y="5269011"/>
-          <a:ext cx="2993427" cy="741189"/>
+          <a:off x="749754" y="5173884"/>
+          <a:ext cx="2939129" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3250,8 +3216,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="717988" y="5269011"/>
-        <a:ext cx="2993427" cy="741189"/>
+        <a:off x="749754" y="5173884"/>
+        <a:ext cx="2939129" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1B7F19A8-C5CD-3644-86F4-780A385B50E5}">
@@ -3261,8 +3227,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="679550" y="6321501"/>
-          <a:ext cx="3070303" cy="741189"/>
+          <a:off x="712013" y="6207282"/>
+          <a:ext cx="3014611" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3329,8 +3295,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="679550" y="6321501"/>
-        <a:ext cx="3070303" cy="741189"/>
+        <a:off x="712013" y="6207282"/>
+        <a:ext cx="3014611" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B1C0E9C8-262A-9E48-BA98-C73305408E52}">
@@ -3340,8 +3306,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1447126" y="7373990"/>
-          <a:ext cx="2222323" cy="741189"/>
+          <a:off x="1465666" y="7240680"/>
+          <a:ext cx="2182012" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3408,8 +3374,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1447126" y="7373990"/>
-        <a:ext cx="2222323" cy="741189"/>
+        <a:off x="1465666" y="7240680"/>
+        <a:ext cx="2182012" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A27CED44-A517-474B-B426-76E3F2DCDDF4}">
@@ -3419,8 +3385,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1447126" y="8426479"/>
-          <a:ext cx="2184849" cy="741189"/>
+          <a:off x="1465666" y="8274078"/>
+          <a:ext cx="2145218" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3487,8 +3453,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1447126" y="8426479"/>
-        <a:ext cx="2184849" cy="741189"/>
+        <a:off x="1465666" y="8274078"/>
+        <a:ext cx="2145218" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8599D308-A6C7-4842-B230-9BAED459BCA0}">
@@ -3498,8 +3464,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3652121" y="4216522"/>
-          <a:ext cx="1482379" cy="741189"/>
+          <a:off x="3630664" y="4140486"/>
+          <a:ext cx="1455490" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3566,8 +3532,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3652121" y="4216522"/>
-        <a:ext cx="1482379" cy="741189"/>
+        <a:off x="3630664" y="4140486"/>
+        <a:ext cx="1455490" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EFB95065-E07D-EE46-AC5A-B26A3ABD9C31}">
@@ -3577,8 +3543,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4022716" y="5269011"/>
-          <a:ext cx="3208906" cy="741189"/>
+          <a:off x="3994536" y="5173884"/>
+          <a:ext cx="3150699" cy="727745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3645,8 +3611,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4022716" y="5269011"/>
-        <a:ext cx="3208906" cy="741189"/>
+        <a:off x="3994536" y="5173884"/>
+        <a:ext cx="3150699" cy="727745"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5839,7 +5805,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5791200" cy="965200"/>
@@ -6185,7 +6151,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5778500" cy="965200"/>
@@ -6510,7 +6476,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5803900" cy="965200"/>
@@ -6757,7 +6723,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5791200" cy="965200"/>
@@ -7074,12 +7040,12 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8240568" cy="825500"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -7363,7 +7329,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -7437,12 +7403,12 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8226136" cy="812800"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -7686,7 +7652,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -7772,12 +7738,12 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8226136" cy="965200"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -7992,7 +7958,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -8078,12 +8044,12 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2501900" cy="1041400"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -8232,7 +8198,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -8306,13 +8272,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>478550</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>55218</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8342,12 +8308,12 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4935682" cy="1041400"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -8620,7 +8586,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -8706,12 +8672,12 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5791200" cy="965200"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -9111,7 +9077,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -9197,12 +9163,12 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5791200" cy="965200"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -9679,7 +9645,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -9765,12 +9731,12 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5791200" cy="965200"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -10265,7 +10231,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -10340,6 +10306,133 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>229010</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>75380</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1226361" cy="173702"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B19D333-DBC3-3E06-119F-C99ACE3EE9C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14137558" y="6159090"/>
+              <a:ext cx="1226361" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <a:fld id="{825F15A7-03F4-43D7-82C5-3E23DA2F108C}" type="mathplaceholder">
+                      <a:rPr lang="en-GB" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>Type equation here.</a:t>
+                    </a:fld>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B19D333-DBC3-3E06-119F-C99ACE3EE9C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14137558" y="6159090"/>
+              <a:ext cx="1226361" cy="173702"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"Type equation here."</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -10667,10 +10760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECAC3D7-571A-2A46-BCFB-1E898C8D9AB7}">
-  <dimension ref="A1:AE63"/>
+  <dimension ref="A2:AE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -10685,102 +10778,81 @@
     <col min="32" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="2" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="S1" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="S2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1"/>
-    </row>
-    <row r="2" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="28"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
       <c r="AC2"/>
     </row>
-    <row r="3" spans="1:31" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="31"/>
+    <row r="3" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
       <c r="AC3"/>
-      <c r="AE3" s="38"/>
     </row>
-    <row r="4" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
+    <row r="4" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
       <c r="AC4"/>
-      <c r="AE4" s="38"/>
+      <c r="AE4" s="6"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+    <row r="5" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -10792,16 +10864,12 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
-      <c r="AE5" s="38"/>
+      <c r="AE5" s="6"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
@@ -10813,16 +10881,14 @@
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
-      <c r="AE6" s="38"/>
+      <c r="AE6" s="6"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
@@ -10834,16 +10900,15 @@
       <c r="AA7"/>
       <c r="AB7"/>
       <c r="AC7"/>
-      <c r="AE7" s="38"/>
+      <c r="AE7" s="6"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
@@ -10855,16 +10920,15 @@
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
-      <c r="AE8" s="38"/>
+      <c r="AE8" s="6"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
@@ -10876,16 +10940,15 @@
       <c r="AA9"/>
       <c r="AB9"/>
       <c r="AC9"/>
-      <c r="AE9" s="38"/>
+      <c r="AE9" s="6"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
@@ -10897,16 +10960,15 @@
       <c r="AA10"/>
       <c r="AB10"/>
       <c r="AC10"/>
-      <c r="AE10" s="38"/>
+      <c r="AE10" s="6"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
@@ -10918,16 +10980,15 @@
       <c r="AA11"/>
       <c r="AB11"/>
       <c r="AC11"/>
-      <c r="AE11" s="38"/>
+      <c r="AE11" s="6"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
@@ -10939,15 +11000,15 @@
       <c r="AA12"/>
       <c r="AB12"/>
       <c r="AC12"/>
+      <c r="AE12" s="6"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
@@ -10961,13 +11022,12 @@
       <c r="AC13"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
@@ -10981,13 +11041,12 @@
       <c r="AC14"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
@@ -11001,14 +11060,12 @@
       <c r="AC15"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="K16" s="2"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
@@ -11022,13 +11079,13 @@
       <c r="AC16"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="K17" s="2"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
@@ -11042,12 +11099,6 @@
       <c r="AC17"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="18"/>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
@@ -11061,13 +11112,10 @@
       <c r="AC18"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="I19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
@@ -11080,7 +11128,10 @@
       <c r="AB19"/>
       <c r="AC19"/>
     </row>
-    <row r="20" spans="2:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="I20" s="3"/>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
@@ -11093,16 +11144,7 @@
       <c r="AB20"/>
       <c r="AC20"/>
     </row>
-    <row r="21" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="6"/>
+    <row r="21" spans="2:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
@@ -11115,14 +11157,16 @@
       <c r="AB21"/>
       <c r="AC21"/>
     </row>
-    <row r="22" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K22" s="7"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="9"/>
+    <row r="22" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="18"/>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
@@ -11135,14 +11179,14 @@
       <c r="AB22"/>
       <c r="AC22"/>
     </row>
-    <row r="23" spans="2:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="7"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="9"/>
+    <row r="23" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
       <c r="S23"/>
       <c r="T23"/>
       <c r="U23"/>
@@ -11156,13 +11200,13 @@
       <c r="AC23"/>
     </row>
     <row r="24" spans="2:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="7"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="9"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24"/>
@@ -11175,14 +11219,14 @@
       <c r="AB24"/>
       <c r="AC24"/>
     </row>
-    <row r="25" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K25" s="7"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="9"/>
+    <row r="25" spans="2:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
@@ -11195,14 +11239,14 @@
       <c r="AB25"/>
       <c r="AC25"/>
     </row>
-    <row r="26" spans="2:29" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
+    <row r="26" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
       <c r="S26"/>
       <c r="T26"/>
       <c r="U26"/>
@@ -11215,7 +11259,14 @@
       <c r="AB26"/>
       <c r="AC26"/>
     </row>
-    <row r="27" spans="2:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="24"/>
       <c r="S27"/>
       <c r="T27"/>
       <c r="U27"/>
@@ -11241,7 +11292,7 @@
       <c r="AB28"/>
       <c r="AC28"/>
     </row>
-    <row r="29" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -11254,25 +11305,13 @@
       <c r="AB29"/>
       <c r="AC29"/>
     </row>
-    <row r="30" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="6"/>
-      <c r="R30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="6"/>
+    <row r="30" spans="2:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
       <c r="Y30"/>
       <c r="Z30"/>
       <c r="AA30"/>
@@ -11280,20 +11319,24 @@
       <c r="AC30"/>
     </row>
     <row r="31" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="9"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="9"/>
+      <c r="J31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
+      <c r="R31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="18"/>
       <c r="Y31"/>
       <c r="Z31"/>
       <c r="AA31"/>
@@ -11301,20 +11344,20 @@
       <c r="AC31"/>
     </row>
     <row r="32" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J32" s="7"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="9"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="9"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="21"/>
       <c r="Y32"/>
       <c r="Z32"/>
       <c r="AA32"/>
@@ -11322,296 +11365,318 @@
       <c r="AC32"/>
     </row>
     <row r="33" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J33" s="7"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="9"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="9"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="21"/>
       <c r="Y33"/>
       <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33"/>
       <c r="AC33"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="9"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="9"/>
+    <row r="34" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="21"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
     </row>
-    <row r="35" spans="2:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="9"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="12"/>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="21"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="21"/>
     </row>
     <row r="36" spans="2:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="12"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="21"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="24"/>
     </row>
     <row r="37" spans="2:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R37" s="4" t="s">
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="24"/>
+    </row>
+    <row r="38" spans="2:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="6"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="18"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="J38" s="4" t="s">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="J39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="6"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="9"/>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="J39" s="7"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="9"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="9"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="18"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="21"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="J40" s="7"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="9"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="9"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="21"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="21"/>
     </row>
-    <row r="41" spans="2:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J41" s="10"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="12"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="9"/>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="21"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="21"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="R42" s="7"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="9"/>
+    <row r="42" spans="2:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="24"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="21"/>
     </row>
-    <row r="43" spans="2:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R43" s="7"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="9"/>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="R43" s="19"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="21"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B44" s="39" t="s">
+    <row r="44" spans="2:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R44" s="19"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="21"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="J44" s="13" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="J45" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="32"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="9"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="28"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="21"/>
     </row>
-    <row r="45" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="34"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="9"/>
+    <row r="46" spans="2:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="31"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="21"/>
     </row>
-    <row r="46" spans="2:29" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="37"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="12"/>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44"/>
+    <row r="47" spans="2:29" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="34"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="24"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="44"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="44"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="44"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="44"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="44"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="45"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="47"/>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K63" s="3"/>
+    <row r="56" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B44:E55"/>
-    <mergeCell ref="K21:Q26"/>
-    <mergeCell ref="S1:AB3"/>
-    <mergeCell ref="J44:P46"/>
-    <mergeCell ref="J38:P41"/>
-    <mergeCell ref="R30:X35"/>
-    <mergeCell ref="R37:X46"/>
-    <mergeCell ref="J30:P36"/>
-    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="B45:E56"/>
+    <mergeCell ref="K22:Q27"/>
+    <mergeCell ref="S2:AB4"/>
+    <mergeCell ref="J45:P47"/>
+    <mergeCell ref="J39:P42"/>
+    <mergeCell ref="R31:X36"/>
+    <mergeCell ref="R38:X47"/>
+    <mergeCell ref="J31:P37"/>
+    <mergeCell ref="A2:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>